--- a/biology/Botanique/Hydnophytum/Hydnophytum.xlsx
+++ b/biology/Botanique/Hydnophytum/Hydnophytum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydnophytum  est un genre de plantes épiphytes myrmécophytes (vivant en symbiose avec des fourmis) de la famille des Rubiaceae. Ce genre regroupe 55 espèces connues.
 Ce nom vient du grec ancien hydnon qui signifie « tubercules », et phyton qui signifie « plante », en raison du fait que ces plantes ressemblent à d'autres plantes dites « succulentes » (produisant des tiges ou feuilles gonflées d'eau). Le gros pseudo-bulbe produit par cette plante est en fait un habitat destiné aux fourmis symbiotes qui vont défendre la plante contre tout éventuel agresseurs.
@@ -512,7 +524,9 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire de Asie du Sud, de la région du Pacifique et se retrouve aussi dans le Queensland au nord de l'Australie.
 Les espèces de ce genre poussent accrochées aux grosses branches des arbres ou sur leurs troncs.
@@ -544,15 +558,17 @@
           <t>Symbiose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Comme le genre apparenté Myrmecodia, les espèces du genre Hydnophytum sont connues pour leur capacité symbiotiques, qui fait appel aux fourmis[2].
-L'espèce type est Hydnophytum formicarum qui vit aux Philippines. Mais ce genre comprend 55 espèces, dont 44 dans et autour de la Nouvelle-Guinée. Beaucoup sont encore très mal connues, dont 11 qui ne sont connues que par un holotype[3].
-Le caudex (renflement de la partie basse de la plante), à paroi lisse, contient des cavités et tunnels débouchant vers l'extérieur. Il fournit à des fourmis vivant dans la canopée de la forêt tropicale, un habitat protégé de la pluie et de nombreux prédateurs (par des épines). Ces fourmis assurent la défense de la plante et n'attaquent pas les tissus de cette dernière. Toute la colonie défend la plante si elle est dérangée[2]. La colonie de fourmis fournit des éléments nutritifs à la plantes en laissant ses déchets dans les tunnels à l'intérieur du caudex. De glandes spéciales disposées le long des tunnels, absorbent cette matière organique qui nourrit alors la plante qui peut ainsi efficacement recueillir des éléments nutritifs (via les fourmis) provenant d'une zone beaucoup plus grande que ce que ses racines auraient jamais pu couvrir.
-Ces plantes peuvent être artificiellement cultivées sans la présence de fourmis[2].
-Deux espèces sont occasionnellement observées en culture[4] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme le genre apparenté Myrmecodia, les espèces du genre Hydnophytum sont connues pour leur capacité symbiotiques, qui fait appel aux fourmis.
+L'espèce type est Hydnophytum formicarum qui vit aux Philippines. Mais ce genre comprend 55 espèces, dont 44 dans et autour de la Nouvelle-Guinée. Beaucoup sont encore très mal connues, dont 11 qui ne sont connues que par un holotype.
+Le caudex (renflement de la partie basse de la plante), à paroi lisse, contient des cavités et tunnels débouchant vers l'extérieur. Il fournit à des fourmis vivant dans la canopée de la forêt tropicale, un habitat protégé de la pluie et de nombreux prédateurs (par des épines). Ces fourmis assurent la défense de la plante et n'attaquent pas les tissus de cette dernière. Toute la colonie défend la plante si elle est dérangée. La colonie de fourmis fournit des éléments nutritifs à la plantes en laissant ses déchets dans les tunnels à l'intérieur du caudex. De glandes spéciales disposées le long des tunnels, absorbent cette matière organique qui nourrit alors la plante qui peut ainsi efficacement recueillir des éléments nutritifs (via les fourmis) provenant d'une zone beaucoup plus grande que ce que ses racines auraient jamais pu couvrir.
+Ces plantes peuvent être artificiellement cultivées sans la présence de fourmis.
+Deux espèces sont occasionnellement observées en culture ;
 Hydnophytum ferrugineum sur la chaîne des McIlwraith, à l'Est de Coen sur la péninsule du Cap York (Caudex épineux gonflé),
-H. moseleyanum , également sur le Cap York (Caudex moins épineux)[4].</t>
+H. moseleyanum , également sur le Cap York (Caudex moins épineux).</t>
         </is>
       </c>
     </row>
@@ -580,9 +596,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (14 mars 2020)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 mars 2020) :
 Hydnophytum agatifolium Valeton
 Hydnophytum albense Valeton
 Hydnophytum albertisii Becc.
@@ -676,7 +694,7 @@
 Hydnophytum virgatum Valeton
 Hydnophytum vitis-idaea Merr. &amp; L.M.Perry
 Hydnophytum zippelianum Becc.
-Selon World Checklist of Selected Plant Families (WCSP)  (14 mars 2020)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 mars 2020) :
 Hydnophytum acuminicalyx Jebb &amp; C.R.Huxley (2019)
 Hydnophytum agatifolium Valeton (1912)
 Hydnophytum albense Valeton (1927)
@@ -793,7 +811,7 @@
 Hydnophytum virgatum Valeton (1927)
 Hydnophytum vitis-idaea Merr. &amp; L.M.Perry (1945)
 Hydnophytum zippelianum Becc. (1885)
-Selon The Plant List            (14 mars 2020)[7] :
+Selon The Plant List            (14 mars 2020) :
 Hydnophytum agatifolium Valeton
 Hydnophytum albense Valeton
 Hydnophytum albertisii Becc.
@@ -888,7 +906,7 @@
 Hydnophytum vitis-idaea Merr. &amp; L.M.Perry
 Hydnophytum wilkinsonii Horne ex Baker
 Hydnophytum zippelianum Becc.
-Selon Tropicos                                           (14 mars 2020)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 Hydnophytum agatifolium Valeton
 Hydnophytum albense Valeton
 Hydnophytum albertisii Becc.
